--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="15" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="119">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -380,19 +380,10 @@
     <t>Error</t>
   </si>
   <si>
-    <t xml:space="preserve">Columnas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtrado de columnas seleccionadas </t>
-  </si>
-  <si>
     <t>Matriz de Pruebas SIEDNL</t>
   </si>
   <si>
     <t xml:space="preserve">Proyecto: Sistema del Presupueso Basado en Resultados </t>
-  </si>
-  <si>
-    <t>Ingresar sitio wed</t>
   </si>
   <si>
     <t xml:space="preserve">Ingresar las Credenciales </t>
@@ -901,6 +892,12 @@
   </si>
   <si>
     <t xml:space="preserve">Permitir dar acceso al llenado de la información  correspondiente para la Ficha Tecnica </t>
+  </si>
+  <si>
+    <t>Ingresar sitio Web</t>
+  </si>
+  <si>
+    <t>Ingresar plataforma SIEDNL</t>
   </si>
 </sst>
 </file>
@@ -6350,7 +6347,54 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+  <location ref="A24:A25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -6449,53 +6493,6 @@
           </reference>
           <reference field="6" count="1" selected="0">
             <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
-  <location ref="A24:A25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="10">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -6782,7 +6779,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6801,7 +6798,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6827,13 +6824,13 @@
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="28"/>
       <c r="E3" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="25"/>
@@ -6860,7 +6857,7 @@
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
       <c r="D5" s="32" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="34"/>
@@ -6906,19 +6903,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -6927,38 +6924,38 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -6967,19 +6964,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -6988,19 +6985,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -7009,19 +7006,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -7030,19 +7027,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -7051,19 +7048,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -7072,19 +7069,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -7093,16 +7090,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>12</v>
@@ -7114,16 +7111,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>12</v>
@@ -7135,19 +7132,19 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -7156,19 +7153,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -7177,19 +7174,19 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -7198,19 +7195,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -7219,19 +7216,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -7240,19 +7237,19 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -7261,19 +7258,19 @@
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -7282,19 +7279,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -7303,19 +7300,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -7324,19 +7321,19 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -7345,19 +7342,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -7366,19 +7363,19 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" t="s">
         <v>78</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
-        <v>81</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -7387,19 +7384,19 @@
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
         <v>41</v>
       </c>
-      <c r="D30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" t="s">
-        <v>44</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J30" s="1"/>
     </row>
@@ -7408,20 +7405,20 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -7430,20 +7427,20 @@
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -7452,19 +7449,19 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -7473,19 +7470,19 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J34" s="1"/>
     </row>
@@ -7494,19 +7491,19 @@
         <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J35" s="1"/>
     </row>
@@ -7515,16 +7512,16 @@
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>12</v>
@@ -7536,16 +7533,16 @@
         <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>12</v>
@@ -7557,19 +7554,19 @@
         <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -7578,19 +7575,19 @@
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J39" s="1"/>
     </row>
@@ -7599,19 +7596,19 @@
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="J40" s="1"/>
     </row>
@@ -7620,19 +7617,19 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J41" s="1"/>
     </row>
@@ -7641,19 +7638,19 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1"/>
     </row>
@@ -7662,19 +7659,19 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J43" s="1"/>
     </row>
@@ -7683,19 +7680,19 @@
         <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J44" s="1"/>
     </row>
@@ -7704,19 +7701,19 @@
         <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -7725,19 +7722,19 @@
         <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J46" s="1"/>
     </row>
@@ -7746,19 +7743,19 @@
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J47" s="1"/>
     </row>
@@ -7767,19 +7764,19 @@
         <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I48" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J48" s="1"/>
     </row>
@@ -7788,19 +7785,19 @@
         <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J49" s="1"/>
     </row>
@@ -7809,19 +7806,19 @@
         <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J50" s="1"/>
     </row>
@@ -7830,19 +7827,19 @@
         <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D51" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J51" s="1"/>
     </row>
@@ -7851,19 +7848,19 @@
         <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -7871,19 +7868,19 @@
         <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D53" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -7891,19 +7888,19 @@
         <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J54" s="1"/>
     </row>
@@ -7912,19 +7909,19 @@
         <v>49</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J55" s="1"/>
     </row>
@@ -7933,19 +7930,19 @@
         <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -7954,16 +7951,16 @@
         <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D57" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>12</v>
@@ -7975,16 +7972,16 @@
         <v>52</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>12</v>
@@ -7996,19 +7993,19 @@
         <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -8017,19 +8014,19 @@
         <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -8038,19 +8035,19 @@
         <v>55</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -8059,19 +8056,19 @@
         <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -8080,19 +8077,19 @@
         <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1"/>
     </row>
@@ -8101,19 +8098,19 @@
         <v>58</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J64" s="1"/>
     </row>
@@ -8122,19 +8119,19 @@
         <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -8143,19 +8140,19 @@
         <v>60</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1"/>
     </row>
@@ -8164,19 +8161,19 @@
         <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -8185,19 +8182,19 @@
         <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1"/>
     </row>
@@ -8206,19 +8203,19 @@
         <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J69" s="1"/>
     </row>
@@ -8227,19 +8224,19 @@
         <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J70" s="1"/>
     </row>
@@ -8248,16 +8245,16 @@
         <v>65</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J71" s="1"/>
     </row>
@@ -8266,19 +8263,19 @@
         <v>66</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J72" s="1"/>
     </row>
@@ -8287,19 +8284,19 @@
         <v>67</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J73" s="1"/>
     </row>
@@ -8308,19 +8305,19 @@
         <v>68</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J74" s="1"/>
     </row>
@@ -8329,19 +8326,19 @@
         <v>69</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J75" s="1"/>
     </row>
@@ -8350,19 +8347,19 @@
         <v>70</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J76" s="1"/>
     </row>
@@ -9009,7 +9006,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>

--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="120">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -898,6 +898,9 @@
   </si>
   <si>
     <t>Ingresar plataforma SIEDNL</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
   </si>
 </sst>
 </file>
@@ -987,7 +990,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1152,30 +1155,6 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color rgb="FF999999"/>
       </top>
       <bottom style="thin">
@@ -1204,7 +1183,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1213,18 +1192,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1300,7 +1271,10 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1418,6 +1392,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1914,174 +1889,6 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.20336596687686129"/>
-                  <c:y val="-0.17354289456450556"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.14994146944815626"/>
-                      <c:h val="0.15435494433529798"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-02EC-495A-8B8F-3EA7E5F8CD95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.26180467360934712"/>
-                  <c:y val="3.9292859757952651E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.18773968997213356"/>
-                      <c:h val="0.19387688277668627"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-02EC-495A-8B8F-3EA7E5F8CD95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1729778430571354"/>
-                  <c:y val="-0.2406679764243615"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="lt1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-MX"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.17420514406246199"/>
-                      <c:h val="0.19715127701375246"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-02EC-495A-8B8F-3EA7E5F8CD95}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2135,36 +1942,21 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>GRAFICOS!$A$4:$A$7</c:f>
+              <c:f>GRAFICOS!$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Error</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Pendiente</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Realizado</c:v>
+                  <c:v>Total general</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GRAFICOS!$B$4:$B$7</c:f>
+              <c:f>GRAFICOS!$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
+                <c:ptCount val="1"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2196,6 +1988,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2896,11 +2689,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45097.538209143517" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="283">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45099.560511226853" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="282">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:J1048576" sheet="Ficha Técnica"/>
+    <worksheetSource ref="A6:K1048576" sheet="Ficha Técnica"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="11">
     <cacheField name="N° Caso" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="70"/>
     </cacheField>
@@ -2920,11 +2713,11 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Estatus de Prueba" numFmtId="0">
-      <sharedItems containsBlank="1" count="4">
-        <s v="Pendiente"/>
-        <s v="Realizado"/>
+      <sharedItems containsNonDate="0" containsBlank="1" count="4">
         <m/>
-        <s v="Error"/>
+        <s v="Pendiente" u="1"/>
+        <s v="Realizado" u="1"/>
+        <s v="Error" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Resultado Obtenido" numFmtId="0">
@@ -2932,6 +2725,9 @@
     </cacheField>
     <cacheField name="Resultado Esperado" numFmtId="0">
       <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Comentarios" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Fecha " numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -2946,10 +2742,10 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="283">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="282">
   <r>
     <n v="1"/>
-    <s v="Ingresar sitio wed"/>
+    <s v="Ingresar sitio Web"/>
     <s v="http://10.200.4.165/"/>
     <s v="Capturador"/>
     <m/>
@@ -2958,6 +2754,7 @@
     <m/>
     <s v="Ingresar al sitio web"/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="2"/>
@@ -2966,9 +2763,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Ingresar "/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Ingresar Correcta las credenciales  "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2977,10 +2775,11 @@
     <s v="PBR (SIEDNL)"/>
     <s v="Capturador"/>
     <m/>
-    <s v="Columnas "/>
-    <x v="0"/>
-    <m/>
-    <s v="Filtrado de columnas seleccionadas "/>
+    <s v="Ingresar "/>
+    <x v="0"/>
+    <m/>
+    <s v="Ingresar plataforma SIEDNL"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -2990,9 +2789,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Recibir "/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Entrega de Información al Usuario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3006,6 +2806,7 @@
     <m/>
     <s v="Permite ejecutar cualquiera de las aplicaciones de la plataforma"/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="6"/>
@@ -3018,6 +2819,7 @@
     <m/>
     <s v="Permite ir  al menú principal de la aplicación "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="7"/>
@@ -3030,6 +2832,7 @@
     <m/>
     <s v="Cambia modificando la contraseña del usuario"/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="8"/>
@@ -3042,6 +2845,7 @@
     <m/>
     <s v="Cerrar Sesión "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="9"/>
@@ -3054,6 +2858,7 @@
     <m/>
     <s v="Busqueda de Ficha Técnica "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="10"/>
@@ -3066,6 +2871,7 @@
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="11"/>
@@ -3074,9 +2880,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Filtro Por Estado de la Ficha Técnca "/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3090,6 +2897,7 @@
     <m/>
     <s v="Permitir visualizar, añadir y cancelar comentarios "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="13"/>
@@ -3102,6 +2910,7 @@
     <m/>
     <s v="Permiter registrar Ficha Técnica "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="14"/>
@@ -3110,9 +2919,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Ficha Técnica / Opciones / Ver Ficha Técnica"/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Visializar Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3122,9 +2932,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Ficha Técnica / Opciones / Descargar "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Descargar Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3138,6 +2949,7 @@
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="17"/>
@@ -3150,6 +2962,7 @@
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="18"/>
@@ -3162,6 +2975,7 @@
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="19"/>
@@ -3174,6 +2988,7 @@
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="20"/>
@@ -3186,6 +3001,7 @@
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="21"/>
@@ -3198,6 +3014,7 @@
     <m/>
     <s v="Recauda toda la información de la Ficha Técnica "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="22"/>
@@ -3206,9 +3023,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Cancelar"/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Cancela la Ficha Técnoca "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3222,6 +3040,7 @@
     <m/>
     <s v="Guarda borrador en los listados de Ficha Técnica"/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="24"/>
@@ -3234,6 +3053,7 @@
     <m/>
     <s v="Enviar Ficha Tecnica a un capturador o verificar para su revisión "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="25"/>
@@ -3246,6 +3066,7 @@
     <m/>
     <s v="Cancela Confirmación "/>
     <m/>
+    <m/>
   </r>
   <r>
     <n v="26"/>
@@ -3254,9 +3075,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Nuevo Comentario "/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Agregar comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3266,9 +3088,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Cancelar Comentario "/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Cancelar Comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3278,9 +3101,10 @@
     <s v="Capturador"/>
     <m/>
     <s v="Confirmar "/>
-    <x v="1"/>
+    <x v="0"/>
     <m/>
     <s v="Confirmación de la Ficha Técnica para revisión"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3290,9 +3114,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Busqueda"/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda de Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3302,9 +3127,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Filtro Por Estado de la Ficha Técnca "/>
-    <x v="3"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3314,9 +3140,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Filtro Por Institución "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3326,9 +3153,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Ficha Técnica / Opciones / Comentarios "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Permite leer comentarios enviados por el capturador asi como añadir un nuevo comentario y cancelar "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3338,9 +3166,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Ficha Técnica / Opciones / Registrar Ficha Técnica "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Permitir dar acceso al registro con la información  correspondiente para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3350,9 +3179,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Ficha Técnica / Opciones / Ver Ficha Técnica"/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Visializar Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3362,9 +3192,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Ficha Técnica / Opciones / Descargar Ficha Técnica "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Descargar Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3374,9 +3205,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3386,9 +3218,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3398,9 +3231,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3410,9 +3244,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3422,9 +3257,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3434,9 +3270,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto  llenado de la información  correspondiente para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3446,9 +3283,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Cancelar "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Cancela registro "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3458,9 +3296,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Solicitar Modificación "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Solicitar Modificación "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3470,9 +3309,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Guardar como Borrador"/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Guardar como Borrador se almacena en el ménu principal de la Ficha Técnica"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3482,9 +3322,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Enviar "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Enviar confirmación de Usuarios para autorización "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3494,9 +3335,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Cancelar Confirmación "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Cancelar Confirmación "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3506,9 +3348,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Nuevo Comentario "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Agregar comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3518,9 +3361,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Cancelar Comentario "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Cancelación de Comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3530,9 +3374,10 @@
     <s v="Verificador"/>
     <m/>
     <s v="Confirmar "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Confirmación Ficha Tecnica enviada a autorización "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3542,9 +3387,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Busqueda"/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda de Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3554,9 +3400,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Filtro Por Estado de la Ficha Técnca "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3566,9 +3413,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Filtro Por Institución "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Busqueda correcta por el filtro seleccionado"/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3578,9 +3426,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Opciones /  Registrar Ficha Técnica "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Permitir dar acceso al llenado de la información  correspondiente para la Ficha Tecnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3590,9 +3439,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Opciones / Comentarios "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Permite leer comentarios enviados por el capturador asi como añadir un nuevo comentario y cancelar "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3602,9 +3452,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Opciones / Descargar "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Permite Descargar el Registro una ves autorizado "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3614,9 +3465,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Opciones / Ver Ficha Técnica "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Permite Visualizar Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3626,9 +3478,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3638,9 +3491,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3650,9 +3504,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3662,9 +3517,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3674,9 +3530,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3686,9 +3543,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Captura de información "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Correcto llenado de la información correspondiete para la Ficha Técnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3698,9 +3556,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Cancelar"/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Cancela Registro "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3710,9 +3569,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Guardar como Borrador"/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Guarda como Borrador "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3722,9 +3582,10 @@
     <m/>
     <m/>
     <s v="Solicitar Modificación "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Solicita al uasuario correspondiete realizar modificación enviando comentarios "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3734,9 +3595,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Autorizar "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Autorizar  la Ficha Tecnica "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3746,9 +3608,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Cancelar Confirmación "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Cancelar Confirmación "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3758,9 +3621,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Nuevo Comentario "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Agregar comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3770,9 +3634,10 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Cancelar Comentario "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Cancelación de Comentario "/>
+    <m/>
     <m/>
   </r>
   <r>
@@ -3782,2515 +3647,2725 @@
     <s v="Autorizador "/>
     <m/>
     <s v="Confirmar "/>
-    <x v="2"/>
+    <x v="0"/>
     <m/>
     <s v="Confirmación  de Autorización de la ficha Técnica "/>
     <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -6302,7 +6377,8 @@
     <m/>
     <s v="oswaldo.cardenas"/>
     <m/>
-    <x v="2"/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -6314,31 +6390,21 @@
     <m/>
     <s v="oswaldo.cardenas"/>
     <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <m/>
     <m/>
     <m/>
     <m/>
@@ -6347,9 +6413,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:A25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="10">
+  <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6359,6 +6425,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowItems count="1">
@@ -6394,9 +6461,9 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -6405,30 +6472,22 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="5">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="1">
     <i t="grand">
       <x/>
     </i>
@@ -6511,18 +6570,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:J264" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" headerRowCellStyle="60% - Énfasis3">
-  <autoFilter ref="A6:J264"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:K264" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="60% - Énfasis3">
+  <autoFilter ref="A6:K264"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="N° Caso"/>
-    <tableColumn id="2" name="Menús" dataDxfId="3"/>
+    <tableColumn id="2" name="Menús" dataDxfId="4"/>
     <tableColumn id="3" name="Submenú"/>
     <tableColumn id="4" name="Perfil"/>
     <tableColumn id="5" name="Usuario "/>
-    <tableColumn id="6" name="Acción" dataDxfId="2"/>
+    <tableColumn id="6" name="Acción" dataDxfId="3"/>
     <tableColumn id="7" name="Estatus de Prueba"/>
-    <tableColumn id="8" name="Resultado Obtenido" dataDxfId="1"/>
-    <tableColumn id="9" name="Resultado Esperado" dataDxfId="0"/>
+    <tableColumn id="8" name="Resultado Obtenido" dataDxfId="2"/>
+    <tableColumn id="9" name="Resultado Esperado" dataDxfId="1"/>
+    <tableColumn id="10" name="Comentarios" dataDxfId="0"/>
     <tableColumn id="14" name="Fecha "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6775,11 +6835,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:J287"/>
+  <dimension ref="A1:K287"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6790,119 +6850,127 @@
     <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
     <col min="8" max="8" width="35.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="33.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:10" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:10" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="32" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -6917,13 +6985,13 @@
       <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2"/>
@@ -6936,13 +7004,13 @@
       <c r="I8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -6957,9 +7025,9 @@
       <c r="I9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -6978,9 +7046,9 @@
       <c r="I10" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -6999,9 +7067,9 @@
       <c r="I11" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7020,9 +7088,9 @@
       <c r="I12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -7041,9 +7109,9 @@
       <c r="I13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -7062,9 +7130,9 @@
       <c r="I14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -7083,9 +7151,9 @@
       <c r="I15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -7104,9 +7172,9 @@
       <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -7125,9 +7193,9 @@
       <c r="I17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -7146,9 +7214,9 @@
       <c r="I18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
@@ -7167,9 +7235,9 @@
       <c r="I19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
@@ -7188,9 +7256,9 @@
       <c r="I20" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="32.25" x14ac:dyDescent="0.3">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="32.25" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
@@ -7209,9 +7277,9 @@
       <c r="I21" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
@@ -7230,9 +7298,9 @@
       <c r="I22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
@@ -7251,9 +7319,9 @@
       <c r="I23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
@@ -7272,9 +7340,9 @@
       <c r="I24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
@@ -7293,9 +7361,9 @@
       <c r="I25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
@@ -7314,9 +7382,9 @@
       <c r="I26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
@@ -7335,9 +7403,9 @@
       <c r="I27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
@@ -7356,9 +7424,9 @@
       <c r="I28" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
@@ -7377,9 +7445,10 @@
       <c r="I29" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="J29"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
@@ -7398,9 +7467,9 @@
       <c r="I30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
@@ -7420,9 +7489,9 @@
       <c r="I31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
@@ -7442,9 +7511,10 @@
       <c r="I32" t="s">
         <v>58</v>
       </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J32"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
@@ -7463,9 +7533,9 @@
       <c r="I33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28</v>
       </c>
@@ -7484,9 +7554,9 @@
       <c r="I34" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>29</v>
       </c>
@@ -7505,16 +7575,16 @@
       <c r="I35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D36" t="s">
@@ -7526,16 +7596,16 @@
       <c r="I36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D37" t="s">
@@ -7547,16 +7617,16 @@
       <c r="I37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="15" t="s">
         <v>84</v>
       </c>
       <c r="D38" t="s">
@@ -7568,9 +7638,9 @@
       <c r="I38" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>33</v>
       </c>
@@ -7589,9 +7659,9 @@
       <c r="I39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>34</v>
       </c>
@@ -7610,9 +7680,9 @@
       <c r="I40" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>35</v>
       </c>
@@ -7631,9 +7701,9 @@
       <c r="I41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>36</v>
       </c>
@@ -7652,9 +7722,9 @@
       <c r="I42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>37</v>
       </c>
@@ -7673,9 +7743,9 @@
       <c r="I43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>38</v>
       </c>
@@ -7694,9 +7764,9 @@
       <c r="I44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>39</v>
       </c>
@@ -7715,9 +7785,9 @@
       <c r="I45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>40</v>
       </c>
@@ -7736,9 +7806,9 @@
       <c r="I46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>41</v>
       </c>
@@ -7757,9 +7827,9 @@
       <c r="I47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>42</v>
       </c>
@@ -7778,9 +7848,9 @@
       <c r="I48" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>43</v>
       </c>
@@ -7799,9 +7869,9 @@
       <c r="I49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>44</v>
       </c>
@@ -7820,9 +7890,9 @@
       <c r="I50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>45</v>
       </c>
@@ -7841,9 +7911,9 @@
       <c r="I51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>46</v>
       </c>
@@ -7863,7 +7933,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>47</v>
       </c>
@@ -7883,7 +7953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>48</v>
       </c>
@@ -7902,9 +7972,9 @@
       <c r="I54" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>49</v>
       </c>
@@ -7920,12 +7990,13 @@
       <c r="F55" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I55" s="18" t="s">
+      <c r="I55" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J55" s="14"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>50</v>
       </c>
@@ -7944,9 +8015,9 @@
       <c r="I56" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>51</v>
       </c>
@@ -7965,9 +8036,9 @@
       <c r="I57" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>52</v>
       </c>
@@ -7986,9 +8057,9 @@
       <c r="I58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>53</v>
       </c>
@@ -8007,9 +8078,9 @@
       <c r="I59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>54</v>
       </c>
@@ -8028,9 +8099,9 @@
       <c r="I60" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>55</v>
       </c>
@@ -8049,9 +8120,9 @@
       <c r="I61" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>56</v>
       </c>
@@ -8070,9 +8141,9 @@
       <c r="I62" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>57</v>
       </c>
@@ -8091,9 +8162,9 @@
       <c r="I63" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>58</v>
       </c>
@@ -8112,9 +8183,9 @@
       <c r="I64" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>59</v>
       </c>
@@ -8133,9 +8204,9 @@
       <c r="I65" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>60</v>
       </c>
@@ -8154,9 +8225,9 @@
       <c r="I66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>61</v>
       </c>
@@ -8175,9 +8246,9 @@
       <c r="I67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>62</v>
       </c>
@@ -8196,9 +8267,9 @@
       <c r="I68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>63</v>
       </c>
@@ -8217,9 +8288,9 @@
       <c r="I69" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>64</v>
       </c>
@@ -8238,9 +8309,9 @@
       <c r="I70" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>65</v>
       </c>
@@ -8256,9 +8327,9 @@
       <c r="I71" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>66</v>
       </c>
@@ -8277,9 +8348,9 @@
       <c r="I72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>67</v>
       </c>
@@ -8298,9 +8369,9 @@
       <c r="I73" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>68</v>
       </c>
@@ -8319,9 +8390,9 @@
       <c r="I74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>69</v>
       </c>
@@ -8340,9 +8411,9 @@
       <c r="I75" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>70</v>
       </c>
@@ -8361,626 +8432,626 @@
       <c r="I76" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J107" s="1"/>
-    </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J108" s="1"/>
-    </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J118" s="1"/>
-    </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J122" s="1"/>
-    </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J123" s="1"/>
-    </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J128" s="1"/>
-    </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J130" s="1"/>
-    </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J131" s="1"/>
-    </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J132" s="1"/>
-    </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J133" s="1"/>
-    </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J134" s="1"/>
-    </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J135" s="1"/>
-    </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J136" s="1"/>
-    </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J137" s="1"/>
-    </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J138" s="1"/>
-    </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J139" s="1"/>
-    </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J140" s="1"/>
-    </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J141" s="1"/>
-    </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J144" s="1"/>
-    </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J145" s="1"/>
-    </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J146" s="1"/>
-    </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J147" s="1"/>
-    </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J148" s="1"/>
-    </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J149" s="1"/>
-    </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J150" s="1"/>
-    </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J151" s="1"/>
-    </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J152" s="1"/>
-    </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J153" s="1"/>
-    </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J154" s="1"/>
-    </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J155" s="1"/>
-    </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J156" s="1"/>
-    </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J157" s="1"/>
-    </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J158" s="1"/>
-    </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J159" s="1"/>
-    </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J160" s="1"/>
-    </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J162" s="1"/>
-    </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J163" s="1"/>
-    </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J164" s="1"/>
-    </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J165" s="1"/>
-    </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J166" s="1"/>
-    </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J167" s="1"/>
-    </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J168" s="1"/>
-    </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J169" s="1"/>
-    </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J170" s="1"/>
-    </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J171" s="1"/>
-    </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J172" s="1"/>
-    </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J173" s="1"/>
-    </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J174" s="1"/>
-    </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J175" s="1"/>
-    </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J176" s="1"/>
-    </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J177" s="1"/>
-    </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J178" s="1"/>
-    </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J179" s="1"/>
-    </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J180" s="1"/>
-    </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J181" s="1"/>
-    </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J182" s="1"/>
-    </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J183" s="1"/>
-    </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J184" s="1"/>
-    </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J185" s="1"/>
-    </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J186" s="1"/>
-    </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J187" s="1"/>
-    </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J188" s="1"/>
-    </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J189" s="1"/>
-    </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J190" s="1"/>
-    </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J191" s="1"/>
-    </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J192" s="1"/>
-    </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J193" s="1"/>
-    </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J194" s="1"/>
-    </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J195" s="1"/>
-    </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J196" s="1"/>
-    </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J197" s="1"/>
-    </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J198" s="1"/>
-    </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J199" s="1"/>
-    </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J200" s="1"/>
-    </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J201" s="1"/>
-    </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J202" s="1"/>
-    </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J203" s="1"/>
-    </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J204" s="1"/>
-    </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J205" s="1"/>
-    </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J206" s="1"/>
-    </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J207" s="1"/>
-    </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J208" s="1"/>
-    </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J209" s="1"/>
-    </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J210" s="1"/>
-    </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J211" s="1"/>
-    </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J212" s="1"/>
-    </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J213" s="1"/>
-    </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J214" s="1"/>
-    </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J215" s="1"/>
-    </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J216" s="1"/>
-    </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J217" s="1"/>
-    </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J218" s="1"/>
-    </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J219" s="1"/>
-    </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J220" s="1"/>
-    </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J221" s="1"/>
-    </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J222" s="1"/>
-    </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J223" s="1"/>
-    </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J224" s="1"/>
-    </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J225" s="1"/>
-    </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J226" s="1"/>
-    </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J227" s="1"/>
-    </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J228" s="1"/>
-    </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J229" s="1"/>
-    </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J230" s="1"/>
-    </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J231" s="1"/>
-    </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J232" s="1"/>
-    </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J233" s="1"/>
-    </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J234" s="1"/>
-    </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J235" s="1"/>
-    </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J236" s="1"/>
-    </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J237" s="1"/>
-    </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J238" s="1"/>
-    </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J239" s="1"/>
-    </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J240" s="1"/>
-    </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J241" s="1"/>
-    </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J242" s="1"/>
-    </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J243" s="1"/>
-    </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J244" s="1"/>
-    </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J245" s="1"/>
-    </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J246" s="1"/>
-    </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J247" s="1"/>
-    </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J248" s="1"/>
-    </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J249" s="1"/>
-    </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J250" s="1"/>
-    </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J251" s="1"/>
-    </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J252" s="1"/>
-    </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J253" s="1"/>
-    </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J254" s="1"/>
-    </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J255" s="1"/>
-    </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J256" s="1"/>
-    </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J257" s="1"/>
-    </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J258" s="1"/>
-    </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J259" s="1"/>
-    </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J260" s="1"/>
-    </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J261" s="1"/>
-    </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J265" s="1"/>
-    </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J266" s="1"/>
-    </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J267" s="1"/>
-    </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J268" s="1"/>
-    </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J269" s="1"/>
-    </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J270" s="1"/>
-    </row>
-    <row r="273" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J273" s="1"/>
-    </row>
-    <row r="274" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J274" s="1"/>
-    </row>
-    <row r="275" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J275" s="1"/>
-    </row>
-    <row r="276" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J276" s="1"/>
-    </row>
-    <row r="277" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J277" s="1"/>
-    </row>
-    <row r="278" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J278" s="1"/>
-    </row>
-    <row r="279" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J279" s="1"/>
-    </row>
-    <row r="280" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J280" s="1"/>
-    </row>
-    <row r="281" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J281" s="1"/>
-    </row>
-    <row r="282" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J282" s="1"/>
-    </row>
-    <row r="283" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J283" s="1"/>
-    </row>
-    <row r="284" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J284" s="1"/>
-    </row>
-    <row r="285" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J285" s="1"/>
-    </row>
-    <row r="286" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K167" s="1"/>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K169" s="1"/>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K170" s="1"/>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K171" s="1"/>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K172" s="1"/>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K173" s="1"/>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K174" s="1"/>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K175" s="1"/>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K176" s="1"/>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K177" s="1"/>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K178" s="1"/>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K180" s="1"/>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K181" s="1"/>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K182" s="1"/>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K183" s="1"/>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K184" s="1"/>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K185" s="1"/>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K187" s="1"/>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K193" s="1"/>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K205" s="1"/>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K206" s="1"/>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K207" s="1"/>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K208" s="1"/>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K209" s="1"/>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K210" s="1"/>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K211" s="1"/>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K212" s="1"/>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K213" s="1"/>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K214" s="1"/>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K215" s="1"/>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K216" s="1"/>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K217" s="1"/>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K218" s="1"/>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K219" s="1"/>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K220" s="1"/>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K221" s="1"/>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K222" s="1"/>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K223" s="1"/>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K224" s="1"/>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K225" s="1"/>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K226" s="1"/>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K227" s="1"/>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K229" s="1"/>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K230" s="1"/>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K231" s="1"/>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K232" s="1"/>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K233" s="1"/>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K234" s="1"/>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K235" s="1"/>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K236" s="1"/>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K238" s="1"/>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K239" s="1"/>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K240" s="1"/>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K241" s="1"/>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K243" s="1"/>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K244" s="1"/>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K245" s="1"/>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K246" s="1"/>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K247" s="1"/>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K248" s="1"/>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K249" s="1"/>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K250" s="1"/>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K251" s="1"/>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K252" s="1"/>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K253" s="1"/>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K254" s="1"/>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K255" s="1"/>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K256" s="1"/>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K257" s="1"/>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K258" s="1"/>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K259" s="1"/>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K260" s="1"/>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K261" s="1"/>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K265" s="1"/>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K266" s="1"/>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K267" s="1"/>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K268" s="1"/>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K269" s="1"/>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K270" s="1"/>
+    </row>
+    <row r="273" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K273" s="1"/>
+    </row>
+    <row r="274" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K274" s="1"/>
+    </row>
+    <row r="275" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K277" s="1"/>
+    </row>
+    <row r="278" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K278" s="1"/>
+    </row>
+    <row r="279" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K279" s="1"/>
+    </row>
+    <row r="280" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K280" s="1"/>
+    </row>
+    <row r="281" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K281" s="1"/>
+    </row>
+    <row r="282" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K284" s="1"/>
+    </row>
+    <row r="285" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K285" s="1"/>
+    </row>
+    <row r="286" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E286" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E287" t="s">
         <v>13</v>
       </c>
@@ -8988,12 +9059,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A1:K2"/>
     <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G3:K4"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -9024,12 +9095,13 @@
   <dimension ref="A3:B25"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="3" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="11.875" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
@@ -9050,35 +9122,9 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11">
-        <v>28</v>
-      </c>
+      <c r="B4" s="7"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -9086,7 +9132,7 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+      <c r="A25" s="7">
         <v>70</v>
       </c>
     </row>
